--- a/INTLINE/data/193/ABS/530201.xlsx
+++ b/INTLINE/data/193/ABS/530201.xlsx
@@ -12,125 +12,125 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3533703K">Data1!$E$1:$E$10,Data1!$E$11:$E$260</definedName>
-    <definedName name="A3533703K_Data">Data1!$E$11:$E$260</definedName>
-    <definedName name="A3533703K_Latest">Data1!$E$260</definedName>
-    <definedName name="A3533747L">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$260</definedName>
-    <definedName name="A3533747L_Data">Data1!$Z$11:$Z$260</definedName>
-    <definedName name="A3533747L_Latest">Data1!$Z$260</definedName>
-    <definedName name="A3533765T">Data1!$P$1:$P$10,Data1!$P$11:$P$260</definedName>
-    <definedName name="A3533765T_Data">Data1!$P$11:$P$260</definedName>
-    <definedName name="A3533765T_Latest">Data1!$P$260</definedName>
-    <definedName name="A3533767W">Data1!$V$1:$V$10,Data1!$V$11:$V$260</definedName>
-    <definedName name="A3533767W_Data">Data1!$V$11:$V$260</definedName>
-    <definedName name="A3533767W_Latest">Data1!$V$260</definedName>
-    <definedName name="A3533768X">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$260</definedName>
-    <definedName name="A3533768X_Data">Data1!$AH$11:$AH$260</definedName>
-    <definedName name="A3533768X_Latest">Data1!$AH$260</definedName>
-    <definedName name="A3533769A">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$260</definedName>
-    <definedName name="A3533769A_Data">Data1!$AJ$11:$AJ$260</definedName>
-    <definedName name="A3533769A_Latest">Data1!$AJ$260</definedName>
-    <definedName name="A3533782V">Data1!$O$1:$O$10,Data1!$O$11:$O$260</definedName>
-    <definedName name="A3533782V_Data">Data1!$O$11:$O$260</definedName>
-    <definedName name="A3533782V_Latest">Data1!$O$260</definedName>
-    <definedName name="A3533808F">Data1!$B$1:$B$10,Data1!$B$11:$B$260</definedName>
-    <definedName name="A3533808F_Data">Data1!$B$11:$B$260</definedName>
-    <definedName name="A3533808F_Latest">Data1!$B$260</definedName>
-    <definedName name="A3533815C">Data1!$J$1:$J$10,Data1!$J$11:$J$260</definedName>
-    <definedName name="A3533815C_Data">Data1!$J$11:$J$260</definedName>
-    <definedName name="A3533815C_Latest">Data1!$J$260</definedName>
-    <definedName name="A3533829T">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$260</definedName>
-    <definedName name="A3533829T_Data">Data1!$AD$11:$AD$260</definedName>
-    <definedName name="A3533829T_Latest">Data1!$AD$260</definedName>
-    <definedName name="A3533830A">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$260</definedName>
-    <definedName name="A3533830A_Data">Data1!$AL$11:$AL$260</definedName>
-    <definedName name="A3533830A_Latest">Data1!$AL$260</definedName>
-    <definedName name="A3533844R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$260</definedName>
-    <definedName name="A3533844R_Data">Data1!$AF$11:$AF$260</definedName>
-    <definedName name="A3533844R_Latest">Data1!$AF$260</definedName>
-    <definedName name="A3533845T">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$260</definedName>
-    <definedName name="A3533845T_Data">Data1!$AK$11:$AK$260</definedName>
-    <definedName name="A3533845T_Latest">Data1!$AK$260</definedName>
-    <definedName name="A3533846V">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$260</definedName>
-    <definedName name="A3533846V_Data">Data1!$AM$11:$AM$260</definedName>
-    <definedName name="A3533846V_Latest">Data1!$AM$260</definedName>
-    <definedName name="A3533874C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$260</definedName>
-    <definedName name="A3533874C_Data">Data1!$AB$11:$AB$260</definedName>
-    <definedName name="A3533874C_Latest">Data1!$AB$260</definedName>
-    <definedName name="A3533875F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$260</definedName>
-    <definedName name="A3533875F_Data">Data1!$AG$11:$AG$260</definedName>
-    <definedName name="A3533875F_Latest">Data1!$AG$260</definedName>
-    <definedName name="A3533876J">Data1!$D$1:$D$10,Data1!$D$11:$D$260</definedName>
-    <definedName name="A3533876J_Data">Data1!$D$11:$D$260</definedName>
-    <definedName name="A3533876J_Latest">Data1!$D$260</definedName>
-    <definedName name="A3533896T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$260</definedName>
-    <definedName name="A3533896T_Data">Data1!$Y$11:$Y$260</definedName>
-    <definedName name="A3533896T_Latest">Data1!$Y$260</definedName>
-    <definedName name="A3533897V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$260</definedName>
-    <definedName name="A3533897V_Data">Data1!$AI$11:$AI$260</definedName>
-    <definedName name="A3533897V_Latest">Data1!$AI$260</definedName>
-    <definedName name="A3533926V">Data1!$F$1:$F$10,Data1!$F$11:$F$260</definedName>
-    <definedName name="A3533926V_Data">Data1!$F$11:$F$260</definedName>
-    <definedName name="A3533926V_Latest">Data1!$F$260</definedName>
-    <definedName name="A3533950V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$260</definedName>
-    <definedName name="A3533950V_Data">Data1!$Q$11:$Q$260</definedName>
-    <definedName name="A3533950V_Latest">Data1!$Q$260</definedName>
-    <definedName name="A3533952X">Data1!$M$1:$M$10,Data1!$M$11:$M$260</definedName>
-    <definedName name="A3533952X_Data">Data1!$M$11:$M$260</definedName>
-    <definedName name="A3533952X_Latest">Data1!$M$260</definedName>
-    <definedName name="A3533953A">Data1!$R$1:$R$10,Data1!$R$11:$R$260</definedName>
-    <definedName name="A3533953A_Data">Data1!$R$11:$R$260</definedName>
-    <definedName name="A3533953A_Latest">Data1!$R$260</definedName>
-    <definedName name="A3533954C">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$260</definedName>
-    <definedName name="A3533954C_Data">Data1!$AC$11:$AC$260</definedName>
-    <definedName name="A3533954C_Latest">Data1!$AC$260</definedName>
-    <definedName name="A3533956J">Data1!$G$1:$G$10,Data1!$G$11:$G$260</definedName>
-    <definedName name="A3533956J_Data">Data1!$G$11:$G$260</definedName>
-    <definedName name="A3533956J_Latest">Data1!$G$260</definedName>
-    <definedName name="A3533958L">Data1!$C$1:$C$10,Data1!$C$11:$C$260</definedName>
-    <definedName name="A3533958L_Data">Data1!$C$11:$C$260</definedName>
-    <definedName name="A3533958L_Latest">Data1!$C$260</definedName>
-    <definedName name="A3533961A">Data1!$H$1:$H$10,Data1!$H$11:$H$260</definedName>
-    <definedName name="A3533961A_Data">Data1!$H$11:$H$260</definedName>
-    <definedName name="A3533961A_Latest">Data1!$H$260</definedName>
-    <definedName name="A3533978W">Data1!$L$1:$L$10,Data1!$L$11:$L$260</definedName>
-    <definedName name="A3533978W_Data">Data1!$L$11:$L$260</definedName>
-    <definedName name="A3533978W_Latest">Data1!$L$260</definedName>
-    <definedName name="A3533979X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$260</definedName>
-    <definedName name="A3533979X_Data">Data1!$AA$11:$AA$260</definedName>
-    <definedName name="A3533979X_Latest">Data1!$AA$260</definedName>
-    <definedName name="A3533998F">Data1!$T$1:$T$10,Data1!$T$11:$T$260</definedName>
-    <definedName name="A3533998F_Data">Data1!$T$11:$T$260</definedName>
-    <definedName name="A3533998F_Latest">Data1!$T$260</definedName>
-    <definedName name="A3534001K">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$260</definedName>
-    <definedName name="A3534001K_Data">Data1!$AN$11:$AN$260</definedName>
-    <definedName name="A3534001K_Latest">Data1!$AN$260</definedName>
-    <definedName name="A3534014W">Data1!$K$1:$K$10,Data1!$K$11:$K$260</definedName>
-    <definedName name="A3534014W_Data">Data1!$K$11:$K$260</definedName>
-    <definedName name="A3534014W_Latest">Data1!$K$260</definedName>
-    <definedName name="A3534021V">Data1!$U$1:$U$10,Data1!$U$11:$U$260</definedName>
-    <definedName name="A3534021V_Data">Data1!$U$11:$U$260</definedName>
-    <definedName name="A3534021V_Latest">Data1!$U$260</definedName>
-    <definedName name="A3534022W">Data1!$N$1:$N$10,Data1!$N$11:$N$260</definedName>
-    <definedName name="A3534022W_Data">Data1!$N$11:$N$260</definedName>
-    <definedName name="A3534022W_Latest">Data1!$N$260</definedName>
-    <definedName name="A3534023X">Data1!$I$1:$I$10,Data1!$I$11:$I$260</definedName>
-    <definedName name="A3534023X_Data">Data1!$I$11:$I$260</definedName>
-    <definedName name="A3534023X_Latest">Data1!$I$260</definedName>
-    <definedName name="A3534049W">Data1!$W$1:$W$10,Data1!$W$11:$W$260</definedName>
-    <definedName name="A3534049W_Data">Data1!$W$11:$W$260</definedName>
-    <definedName name="A3534049W_Latest">Data1!$W$260</definedName>
-    <definedName name="A3534050F">Data1!$X$1:$X$10,Data1!$X$11:$X$260</definedName>
-    <definedName name="A3534050F_Data">Data1!$X$11:$X$260</definedName>
-    <definedName name="A3534050F_Latest">Data1!$X$260</definedName>
-    <definedName name="A3534052K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$260</definedName>
-    <definedName name="A3534052K_Data">Data1!$AE$11:$AE$260</definedName>
-    <definedName name="A3534052K_Latest">Data1!$AE$260</definedName>
-    <definedName name="A3535359W">Data1!$S$1:$S$10,Data1!$S$11:$S$260</definedName>
-    <definedName name="A3535359W_Data">Data1!$S$11:$S$260</definedName>
-    <definedName name="A3535359W_Latest">Data1!$S$260</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$260</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$260</definedName>
+    <definedName name="A3533703K">Data1!$E$1:$E$10,Data1!$E$11:$E$261</definedName>
+    <definedName name="A3533703K_Data">Data1!$E$11:$E$261</definedName>
+    <definedName name="A3533703K_Latest">Data1!$E$261</definedName>
+    <definedName name="A3533747L">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$261</definedName>
+    <definedName name="A3533747L_Data">Data1!$Z$11:$Z$261</definedName>
+    <definedName name="A3533747L_Latest">Data1!$Z$261</definedName>
+    <definedName name="A3533765T">Data1!$P$1:$P$10,Data1!$P$11:$P$261</definedName>
+    <definedName name="A3533765T_Data">Data1!$P$11:$P$261</definedName>
+    <definedName name="A3533765T_Latest">Data1!$P$261</definedName>
+    <definedName name="A3533767W">Data1!$V$1:$V$10,Data1!$V$11:$V$261</definedName>
+    <definedName name="A3533767W_Data">Data1!$V$11:$V$261</definedName>
+    <definedName name="A3533767W_Latest">Data1!$V$261</definedName>
+    <definedName name="A3533768X">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$261</definedName>
+    <definedName name="A3533768X_Data">Data1!$AH$11:$AH$261</definedName>
+    <definedName name="A3533768X_Latest">Data1!$AH$261</definedName>
+    <definedName name="A3533769A">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$261</definedName>
+    <definedName name="A3533769A_Data">Data1!$AJ$11:$AJ$261</definedName>
+    <definedName name="A3533769A_Latest">Data1!$AJ$261</definedName>
+    <definedName name="A3533782V">Data1!$O$1:$O$10,Data1!$O$11:$O$261</definedName>
+    <definedName name="A3533782V_Data">Data1!$O$11:$O$261</definedName>
+    <definedName name="A3533782V_Latest">Data1!$O$261</definedName>
+    <definedName name="A3533808F">Data1!$B$1:$B$10,Data1!$B$11:$B$261</definedName>
+    <definedName name="A3533808F_Data">Data1!$B$11:$B$261</definedName>
+    <definedName name="A3533808F_Latest">Data1!$B$261</definedName>
+    <definedName name="A3533815C">Data1!$J$1:$J$10,Data1!$J$11:$J$261</definedName>
+    <definedName name="A3533815C_Data">Data1!$J$11:$J$261</definedName>
+    <definedName name="A3533815C_Latest">Data1!$J$261</definedName>
+    <definedName name="A3533829T">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$261</definedName>
+    <definedName name="A3533829T_Data">Data1!$AD$11:$AD$261</definedName>
+    <definedName name="A3533829T_Latest">Data1!$AD$261</definedName>
+    <definedName name="A3533830A">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$261</definedName>
+    <definedName name="A3533830A_Data">Data1!$AL$11:$AL$261</definedName>
+    <definedName name="A3533830A_Latest">Data1!$AL$261</definedName>
+    <definedName name="A3533844R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$261</definedName>
+    <definedName name="A3533844R_Data">Data1!$AF$11:$AF$261</definedName>
+    <definedName name="A3533844R_Latest">Data1!$AF$261</definedName>
+    <definedName name="A3533845T">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$261</definedName>
+    <definedName name="A3533845T_Data">Data1!$AK$11:$AK$261</definedName>
+    <definedName name="A3533845T_Latest">Data1!$AK$261</definedName>
+    <definedName name="A3533846V">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$261</definedName>
+    <definedName name="A3533846V_Data">Data1!$AM$11:$AM$261</definedName>
+    <definedName name="A3533846V_Latest">Data1!$AM$261</definedName>
+    <definedName name="A3533874C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$261</definedName>
+    <definedName name="A3533874C_Data">Data1!$AB$11:$AB$261</definedName>
+    <definedName name="A3533874C_Latest">Data1!$AB$261</definedName>
+    <definedName name="A3533875F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$261</definedName>
+    <definedName name="A3533875F_Data">Data1!$AG$11:$AG$261</definedName>
+    <definedName name="A3533875F_Latest">Data1!$AG$261</definedName>
+    <definedName name="A3533876J">Data1!$D$1:$D$10,Data1!$D$11:$D$261</definedName>
+    <definedName name="A3533876J_Data">Data1!$D$11:$D$261</definedName>
+    <definedName name="A3533876J_Latest">Data1!$D$261</definedName>
+    <definedName name="A3533896T">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$261</definedName>
+    <definedName name="A3533896T_Data">Data1!$Y$11:$Y$261</definedName>
+    <definedName name="A3533896T_Latest">Data1!$Y$261</definedName>
+    <definedName name="A3533897V">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$261</definedName>
+    <definedName name="A3533897V_Data">Data1!$AI$11:$AI$261</definedName>
+    <definedName name="A3533897V_Latest">Data1!$AI$261</definedName>
+    <definedName name="A3533926V">Data1!$F$1:$F$10,Data1!$F$11:$F$261</definedName>
+    <definedName name="A3533926V_Data">Data1!$F$11:$F$261</definedName>
+    <definedName name="A3533926V_Latest">Data1!$F$261</definedName>
+    <definedName name="A3533950V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$261</definedName>
+    <definedName name="A3533950V_Data">Data1!$Q$11:$Q$261</definedName>
+    <definedName name="A3533950V_Latest">Data1!$Q$261</definedName>
+    <definedName name="A3533952X">Data1!$M$1:$M$10,Data1!$M$11:$M$261</definedName>
+    <definedName name="A3533952X_Data">Data1!$M$11:$M$261</definedName>
+    <definedName name="A3533952X_Latest">Data1!$M$261</definedName>
+    <definedName name="A3533953A">Data1!$R$1:$R$10,Data1!$R$11:$R$261</definedName>
+    <definedName name="A3533953A_Data">Data1!$R$11:$R$261</definedName>
+    <definedName name="A3533953A_Latest">Data1!$R$261</definedName>
+    <definedName name="A3533954C">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$261</definedName>
+    <definedName name="A3533954C_Data">Data1!$AC$11:$AC$261</definedName>
+    <definedName name="A3533954C_Latest">Data1!$AC$261</definedName>
+    <definedName name="A3533956J">Data1!$G$1:$G$10,Data1!$G$11:$G$261</definedName>
+    <definedName name="A3533956J_Data">Data1!$G$11:$G$261</definedName>
+    <definedName name="A3533956J_Latest">Data1!$G$261</definedName>
+    <definedName name="A3533958L">Data1!$C$1:$C$10,Data1!$C$11:$C$261</definedName>
+    <definedName name="A3533958L_Data">Data1!$C$11:$C$261</definedName>
+    <definedName name="A3533958L_Latest">Data1!$C$261</definedName>
+    <definedName name="A3533961A">Data1!$H$1:$H$10,Data1!$H$11:$H$261</definedName>
+    <definedName name="A3533961A_Data">Data1!$H$11:$H$261</definedName>
+    <definedName name="A3533961A_Latest">Data1!$H$261</definedName>
+    <definedName name="A3533978W">Data1!$L$1:$L$10,Data1!$L$11:$L$261</definedName>
+    <definedName name="A3533978W_Data">Data1!$L$11:$L$261</definedName>
+    <definedName name="A3533978W_Latest">Data1!$L$261</definedName>
+    <definedName name="A3533979X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$261</definedName>
+    <definedName name="A3533979X_Data">Data1!$AA$11:$AA$261</definedName>
+    <definedName name="A3533979X_Latest">Data1!$AA$261</definedName>
+    <definedName name="A3533998F">Data1!$T$1:$T$10,Data1!$T$11:$T$261</definedName>
+    <definedName name="A3533998F_Data">Data1!$T$11:$T$261</definedName>
+    <definedName name="A3533998F_Latest">Data1!$T$261</definedName>
+    <definedName name="A3534001K">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$261</definedName>
+    <definedName name="A3534001K_Data">Data1!$AN$11:$AN$261</definedName>
+    <definedName name="A3534001K_Latest">Data1!$AN$261</definedName>
+    <definedName name="A3534014W">Data1!$K$1:$K$10,Data1!$K$11:$K$261</definedName>
+    <definedName name="A3534014W_Data">Data1!$K$11:$K$261</definedName>
+    <definedName name="A3534014W_Latest">Data1!$K$261</definedName>
+    <definedName name="A3534021V">Data1!$U$1:$U$10,Data1!$U$11:$U$261</definedName>
+    <definedName name="A3534021V_Data">Data1!$U$11:$U$261</definedName>
+    <definedName name="A3534021V_Latest">Data1!$U$261</definedName>
+    <definedName name="A3534022W">Data1!$N$1:$N$10,Data1!$N$11:$N$261</definedName>
+    <definedName name="A3534022W_Data">Data1!$N$11:$N$261</definedName>
+    <definedName name="A3534022W_Latest">Data1!$N$261</definedName>
+    <definedName name="A3534023X">Data1!$I$1:$I$10,Data1!$I$11:$I$261</definedName>
+    <definedName name="A3534023X_Data">Data1!$I$11:$I$261</definedName>
+    <definedName name="A3534023X_Latest">Data1!$I$261</definedName>
+    <definedName name="A3534049W">Data1!$W$1:$W$10,Data1!$W$11:$W$261</definedName>
+    <definedName name="A3534049W_Data">Data1!$W$11:$W$261</definedName>
+    <definedName name="A3534049W_Latest">Data1!$W$261</definedName>
+    <definedName name="A3534050F">Data1!$X$1:$X$10,Data1!$X$11:$X$261</definedName>
+    <definedName name="A3534050F_Data">Data1!$X$11:$X$261</definedName>
+    <definedName name="A3534050F_Latest">Data1!$X$261</definedName>
+    <definedName name="A3534052K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$261</definedName>
+    <definedName name="A3534052K_Data">Data1!$AE$11:$AE$261</definedName>
+    <definedName name="A3534052K_Latest">Data1!$AE$261</definedName>
+    <definedName name="A3535359W">Data1!$S$1:$S$10,Data1!$S$11:$S$261</definedName>
+    <definedName name="A3535359W_Data">Data1!$S$11:$S$261</definedName>
+    <definedName name="A3535359W_Latest">Data1!$S$261</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$261</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$261</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -17329,10 +17329,10 @@
         <v>21794</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>48</v>
@@ -17361,10 +17361,10 @@
         <v>21794</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>48</v>
@@ -17393,10 +17393,10 @@
         <v>21794</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>48</v>
@@ -17425,10 +17425,10 @@
         <v>21794</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>48</v>
@@ -17457,10 +17457,10 @@
         <v>21794</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>48</v>
@@ -17489,10 +17489,10 @@
         <v>21794</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>48</v>
@@ -17521,10 +17521,10 @@
         <v>21794</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>48</v>
@@ -17553,10 +17553,10 @@
         <v>21794</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>48</v>
@@ -17585,10 +17585,10 @@
         <v>21794</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>48</v>
@@ -17617,10 +17617,10 @@
         <v>21794</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>48</v>
@@ -17649,10 +17649,10 @@
         <v>21794</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>48</v>
@@ -17681,10 +17681,10 @@
         <v>21794</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>48</v>
@@ -17713,10 +17713,10 @@
         <v>21794</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>48</v>
@@ -17745,10 +17745,10 @@
         <v>21794</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>48</v>
@@ -17777,10 +17777,10 @@
         <v>21794</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>48</v>
@@ -17809,10 +17809,10 @@
         <v>21794</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>48</v>
@@ -17841,10 +17841,10 @@
         <v>21794</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>48</v>
@@ -17873,10 +17873,10 @@
         <v>21794</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>48</v>
@@ -17905,10 +17905,10 @@
         <v>21794</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>48</v>
@@ -17937,10 +17937,10 @@
         <v>21794</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>48</v>
@@ -17969,10 +17969,10 @@
         <v>21794</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>48</v>
@@ -18001,10 +18001,10 @@
         <v>21794</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>48</v>
@@ -18033,10 +18033,10 @@
         <v>21794</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>48</v>
@@ -18065,10 +18065,10 @@
         <v>21794</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>48</v>
@@ -18097,10 +18097,10 @@
         <v>21794</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>48</v>
@@ -18129,10 +18129,10 @@
         <v>21794</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>48</v>
@@ -18161,10 +18161,10 @@
         <v>21794</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>48</v>
@@ -18193,10 +18193,10 @@
         <v>21794</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>48</v>
@@ -18225,10 +18225,10 @@
         <v>21794</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>48</v>
@@ -18257,10 +18257,10 @@
         <v>21794</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>48</v>
@@ -18289,10 +18289,10 @@
         <v>21794</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>48</v>
@@ -18321,10 +18321,10 @@
         <v>21794</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>48</v>
@@ -18353,10 +18353,10 @@
         <v>21794</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>48</v>
@@ -18385,10 +18385,10 @@
         <v>21794</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>48</v>
@@ -18417,10 +18417,10 @@
         <v>21794</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>48</v>
@@ -18449,10 +18449,10 @@
         <v>21794</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>48</v>
@@ -18481,10 +18481,10 @@
         <v>21794</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>48</v>
@@ -18513,10 +18513,10 @@
         <v>21794</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>48</v>
@@ -18545,10 +18545,10 @@
         <v>21794</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>48</v>
@@ -18622,7 +18622,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN260"/>
+  <dimension ref="A1:AN261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -19492,121 +19492,121 @@
         <v>45</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -19614,121 +19614,121 @@
         <v>46</v>
       </c>
       <c r="B9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AD9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN9" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -47150,16 +47150,16 @@
         <v>44075</v>
       </c>
       <c r="B255" s="8">
-        <v>8037</v>
+        <v>8042</v>
       </c>
       <c r="C255" s="8">
-        <v>12580</v>
+        <v>12539</v>
       </c>
       <c r="D255" s="8">
-        <v>100656</v>
+        <v>100650</v>
       </c>
       <c r="E255" s="8">
-        <v>-88076</v>
+        <v>-88111</v>
       </c>
       <c r="F255" s="8">
         <v>8498</v>
@@ -47171,34 +47171,34 @@
         <v>-76814</v>
       </c>
       <c r="I255" s="8">
-        <v>4082</v>
+        <v>4041</v>
       </c>
       <c r="J255" s="8">
-        <v>15344</v>
+        <v>15338</v>
       </c>
       <c r="K255" s="8">
-        <v>-11262</v>
+        <v>-11297</v>
       </c>
       <c r="L255" s="8">
-        <v>-4143</v>
+        <v>-4108</v>
       </c>
       <c r="M255" s="8">
-        <v>16161</v>
+        <v>16196</v>
       </c>
       <c r="N255" s="8">
         <v>-20304</v>
       </c>
       <c r="O255" s="8">
-        <v>-400</v>
+        <v>-389</v>
       </c>
       <c r="P255" s="8">
-        <v>2317</v>
+        <v>2330</v>
       </c>
       <c r="Q255" s="8">
-        <v>-2717</v>
+        <v>-2719</v>
       </c>
       <c r="R255" s="8">
-        <v>-6447</v>
+        <v>-6481</v>
       </c>
       <c r="S255" s="8">
         <v>-165</v>
@@ -47222,25 +47222,25 @@
         <v>-165</v>
       </c>
       <c r="Z255" s="8">
-        <v>-6282</v>
+        <v>-6316</v>
       </c>
       <c r="AA255" s="8">
-        <v>-5686</v>
+        <v>-5683</v>
       </c>
       <c r="AB255" s="8">
-        <v>-9923</v>
+        <v>-9928</v>
       </c>
       <c r="AC255" s="8">
-        <v>4237</v>
+        <v>4245</v>
       </c>
       <c r="AD255" s="8">
-        <v>12090</v>
+        <v>12056</v>
       </c>
       <c r="AE255" s="8">
-        <v>-43477</v>
+        <v>-43513</v>
       </c>
       <c r="AF255" s="8">
-        <v>55568</v>
+        <v>55569</v>
       </c>
       <c r="AG255" s="8">
         <v>-7568</v>
@@ -47252,19 +47252,19 @@
         <v>-56565</v>
       </c>
       <c r="AJ255" s="8">
-        <v>-5626</v>
+        <v>-5628</v>
       </c>
       <c r="AK255" s="8">
-        <v>15173</v>
+        <v>15159</v>
       </c>
       <c r="AL255" s="8">
-        <v>-20798</v>
+        <v>-20787</v>
       </c>
       <c r="AM255" s="8">
         <v>507</v>
       </c>
       <c r="AN255" s="8">
-        <v>-1590</v>
+        <v>-1561</v>
       </c>
     </row>
     <row r="256" spans="1:40" x14ac:dyDescent="0.2">
@@ -47272,16 +47272,16 @@
         <v>44166</v>
       </c>
       <c r="B256" s="8">
-        <v>14718</v>
+        <v>14675</v>
       </c>
       <c r="C256" s="8">
-        <v>16282</v>
+        <v>16214</v>
       </c>
       <c r="D256" s="8">
-        <v>112446</v>
+        <v>112439</v>
       </c>
       <c r="E256" s="8">
-        <v>-96164</v>
+        <v>-96225</v>
       </c>
       <c r="F256" s="8">
         <v>12524</v>
@@ -47293,34 +47293,34 @@
         <v>-83349</v>
       </c>
       <c r="I256" s="8">
-        <v>3758</v>
+        <v>3690</v>
       </c>
       <c r="J256" s="8">
-        <v>16573</v>
+        <v>16566</v>
       </c>
       <c r="K256" s="8">
-        <v>-12815</v>
+        <v>-12876</v>
       </c>
       <c r="L256" s="8">
-        <v>-1220</v>
+        <v>-1183</v>
       </c>
       <c r="M256" s="8">
-        <v>15716</v>
+        <v>15753</v>
       </c>
       <c r="N256" s="8">
         <v>-16937</v>
       </c>
       <c r="O256" s="8">
-        <v>-343</v>
+        <v>-356</v>
       </c>
       <c r="P256" s="8">
-        <v>2401</v>
+        <v>2389</v>
       </c>
       <c r="Q256" s="8">
-        <v>-2744</v>
+        <v>-2745</v>
       </c>
       <c r="R256" s="8">
-        <v>-15632</v>
+        <v>-15135</v>
       </c>
       <c r="S256" s="8">
         <v>-157</v>
@@ -47344,22 +47344,22 @@
         <v>-180</v>
       </c>
       <c r="Z256" s="8">
-        <v>-15475</v>
+        <v>-14978</v>
       </c>
       <c r="AA256" s="8">
-        <v>-254</v>
+        <v>126</v>
       </c>
       <c r="AB256" s="8">
-        <v>-2411</v>
+        <v>-2430</v>
       </c>
       <c r="AC256" s="8">
-        <v>2157</v>
+        <v>2556</v>
       </c>
       <c r="AD256" s="8">
-        <v>-13571</v>
+        <v>-13636</v>
       </c>
       <c r="AE256" s="8">
-        <v>-74659</v>
+        <v>-74724</v>
       </c>
       <c r="AF256" s="8">
         <v>61088</v>
@@ -47374,19 +47374,19 @@
         <v>-36865</v>
       </c>
       <c r="AJ256" s="8">
-        <v>8272</v>
+        <v>8455</v>
       </c>
       <c r="AK256" s="8">
-        <v>25184</v>
+        <v>25367</v>
       </c>
       <c r="AL256" s="8">
-        <v>-16913</v>
+        <v>-16912</v>
       </c>
       <c r="AM256" s="8">
         <v>781</v>
       </c>
       <c r="AN256" s="8">
-        <v>914</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:40" x14ac:dyDescent="0.2">
@@ -47394,16 +47394,16 @@
         <v>44256</v>
       </c>
       <c r="B257" s="8">
-        <v>18568</v>
+        <v>18453</v>
       </c>
       <c r="C257" s="8">
-        <v>26483</v>
+        <v>26417</v>
       </c>
       <c r="D257" s="8">
-        <v>115995</v>
+        <v>115972</v>
       </c>
       <c r="E257" s="8">
-        <v>-89512</v>
+        <v>-89555</v>
       </c>
       <c r="F257" s="8">
         <v>22312</v>
@@ -47415,34 +47415,34 @@
         <v>-77710</v>
       </c>
       <c r="I257" s="8">
-        <v>4171</v>
+        <v>4105</v>
       </c>
       <c r="J257" s="8">
-        <v>15973</v>
+        <v>15950</v>
       </c>
       <c r="K257" s="8">
-        <v>-11802</v>
+        <v>-11845</v>
       </c>
       <c r="L257" s="8">
-        <v>-7218</v>
+        <v>-7269</v>
       </c>
       <c r="M257" s="8">
-        <v>16818</v>
+        <v>16880</v>
       </c>
       <c r="N257" s="8">
-        <v>-24036</v>
+        <v>-24149</v>
       </c>
       <c r="O257" s="8">
-        <v>-698</v>
+        <v>-695</v>
       </c>
       <c r="P257" s="8">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="Q257" s="8">
-        <v>-3038</v>
+        <v>-3036</v>
       </c>
       <c r="R257" s="8">
-        <v>-18045</v>
+        <v>-16143</v>
       </c>
       <c r="S257" s="8">
         <v>-182</v>
@@ -47466,25 +47466,25 @@
         <v>-188</v>
       </c>
       <c r="Z257" s="8">
-        <v>-17863</v>
+        <v>-15961</v>
       </c>
       <c r="AA257" s="8">
-        <v>8437</v>
+        <v>10447</v>
       </c>
       <c r="AB257" s="8">
-        <v>5290</v>
+        <v>5370</v>
       </c>
       <c r="AC257" s="8">
-        <v>3147</v>
+        <v>5078</v>
       </c>
       <c r="AD257" s="8">
-        <v>-33686</v>
+        <v>-33772</v>
       </c>
       <c r="AE257" s="8">
-        <v>-12380</v>
+        <v>-12463</v>
       </c>
       <c r="AF257" s="8">
-        <v>-21306</v>
+        <v>-21309</v>
       </c>
       <c r="AG257" s="8">
         <v>1512</v>
@@ -47496,19 +47496,19 @@
         <v>-63190</v>
       </c>
       <c r="AJ257" s="8">
-        <v>11339</v>
+        <v>11316</v>
       </c>
       <c r="AK257" s="8">
-        <v>-3262</v>
+        <v>-3249</v>
       </c>
       <c r="AL257" s="8">
-        <v>14600</v>
+        <v>14564</v>
       </c>
       <c r="AM257" s="8">
         <v>-5465</v>
       </c>
       <c r="AN257" s="8">
-        <v>-523</v>
+        <v>-2310</v>
       </c>
     </row>
     <row r="258" spans="1:40" x14ac:dyDescent="0.2">
@@ -47516,55 +47516,55 @@
         <v>44348</v>
       </c>
       <c r="B258" s="8">
-        <v>27819</v>
+        <v>27572</v>
       </c>
       <c r="C258" s="8">
-        <v>35147</v>
+        <v>34875</v>
       </c>
       <c r="D258" s="8">
-        <v>130220</v>
+        <v>130178</v>
       </c>
       <c r="E258" s="8">
-        <v>-95073</v>
+        <v>-95303</v>
       </c>
       <c r="F258" s="8">
-        <v>33211</v>
+        <v>33037</v>
       </c>
       <c r="G258" s="8">
         <v>115505</v>
       </c>
       <c r="H258" s="8">
-        <v>-82294</v>
+        <v>-82468</v>
       </c>
       <c r="I258" s="8">
-        <v>1936</v>
+        <v>1838</v>
       </c>
       <c r="J258" s="8">
-        <v>14715</v>
+        <v>14673</v>
       </c>
       <c r="K258" s="8">
-        <v>-12779</v>
+        <v>-12835</v>
       </c>
       <c r="L258" s="8">
-        <v>-5576</v>
+        <v>-5551</v>
       </c>
       <c r="M258" s="8">
-        <v>17018</v>
+        <v>17094</v>
       </c>
       <c r="N258" s="8">
-        <v>-22594</v>
+        <v>-22645</v>
       </c>
       <c r="O258" s="8">
-        <v>-1751</v>
+        <v>-1752</v>
       </c>
       <c r="P258" s="8">
         <v>2372</v>
       </c>
       <c r="Q258" s="8">
-        <v>-4123</v>
+        <v>-4124</v>
       </c>
       <c r="R258" s="8">
-        <v>-26842</v>
+        <v>-26225</v>
       </c>
       <c r="S258" s="8">
         <v>-260</v>
@@ -47588,25 +47588,25 @@
         <v>-218</v>
       </c>
       <c r="Z258" s="8">
-        <v>-26582</v>
+        <v>-25965</v>
       </c>
       <c r="AA258" s="8">
-        <v>4824</v>
+        <v>5498</v>
       </c>
       <c r="AB258" s="8">
-        <v>3050</v>
+        <v>3070</v>
       </c>
       <c r="AC258" s="8">
-        <v>1774</v>
+        <v>2429</v>
       </c>
       <c r="AD258" s="8">
-        <v>-33230</v>
+        <v>-33335</v>
       </c>
       <c r="AE258" s="8">
-        <v>-49454</v>
+        <v>-49559</v>
       </c>
       <c r="AF258" s="8">
-        <v>16225</v>
+        <v>16224</v>
       </c>
       <c r="AG258" s="8">
         <v>2469</v>
@@ -47618,19 +47618,19 @@
         <v>-49238</v>
       </c>
       <c r="AJ258" s="8">
-        <v>-1399</v>
+        <v>-1351</v>
       </c>
       <c r="AK258" s="8">
-        <v>-6867</v>
+        <v>-7123</v>
       </c>
       <c r="AL258" s="8">
-        <v>5469</v>
+        <v>5772</v>
       </c>
       <c r="AM258" s="8">
         <v>754</v>
       </c>
       <c r="AN258" s="8">
-        <v>-978</v>
+        <v>-1347</v>
       </c>
     </row>
     <row r="259" spans="1:40" x14ac:dyDescent="0.2">
@@ -47638,55 +47638,55 @@
         <v>44440</v>
       </c>
       <c r="B259" s="8">
-        <v>19616</v>
+        <v>18555</v>
       </c>
       <c r="C259" s="8">
-        <v>36512</v>
+        <v>35455</v>
       </c>
       <c r="D259" s="8">
-        <v>137358</v>
+        <v>136432</v>
       </c>
       <c r="E259" s="8">
-        <v>-100846</v>
+        <v>-100977</v>
       </c>
       <c r="F259" s="8">
-        <v>35508</v>
+        <v>35159</v>
       </c>
       <c r="G259" s="8">
-        <v>122624</v>
+        <v>122273</v>
       </c>
       <c r="H259" s="8">
-        <v>-87116</v>
+        <v>-87114</v>
       </c>
       <c r="I259" s="8">
-        <v>1004</v>
+        <v>296</v>
       </c>
       <c r="J259" s="8">
-        <v>14734</v>
+        <v>14159</v>
       </c>
       <c r="K259" s="8">
-        <v>-13730</v>
+        <v>-13863</v>
       </c>
       <c r="L259" s="8">
-        <v>-16444</v>
+        <v>-16452</v>
       </c>
       <c r="M259" s="8">
-        <v>18719</v>
+        <v>18549</v>
       </c>
       <c r="N259" s="8">
-        <v>-35164</v>
+        <v>-35002</v>
       </c>
       <c r="O259" s="8">
-        <v>-452</v>
+        <v>-448</v>
       </c>
       <c r="P259" s="8">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="Q259" s="8">
-        <v>-2894</v>
+        <v>-2893</v>
       </c>
       <c r="R259" s="8">
-        <v>-15386</v>
+        <v>-15603</v>
       </c>
       <c r="S259" s="8">
         <v>-160</v>
@@ -47710,49 +47710,49 @@
         <v>-165</v>
       </c>
       <c r="Z259" s="8">
-        <v>-15226</v>
+        <v>-15443</v>
       </c>
       <c r="AA259" s="8">
-        <v>-8481</v>
+        <v>-8430</v>
       </c>
       <c r="AB259" s="8">
-        <v>-17048</v>
+        <v>-17149</v>
       </c>
       <c r="AC259" s="8">
-        <v>8567</v>
+        <v>8719</v>
       </c>
       <c r="AD259" s="8">
-        <v>-1954</v>
+        <v>-1942</v>
       </c>
       <c r="AE259" s="8">
-        <v>-39494</v>
+        <v>-39343</v>
       </c>
       <c r="AF259" s="8">
-        <v>37540</v>
+        <v>37401</v>
       </c>
       <c r="AG259" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AH259" s="8">
-        <v>45906</v>
+        <v>45904</v>
       </c>
       <c r="AI259" s="8">
-        <v>-45689</v>
+        <v>-45682</v>
       </c>
       <c r="AJ259" s="8">
-        <v>12370</v>
+        <v>12085</v>
       </c>
       <c r="AK259" s="8">
-        <v>-23843</v>
+        <v>-24185</v>
       </c>
       <c r="AL259" s="8">
-        <v>36213</v>
+        <v>36270</v>
       </c>
       <c r="AM259" s="8">
         <v>-17378</v>
       </c>
       <c r="AN259" s="8">
-        <v>-4230</v>
+        <v>-2952</v>
       </c>
     </row>
     <row r="260" spans="1:40" x14ac:dyDescent="0.2">
@@ -47760,67 +47760,67 @@
         <v>44531</v>
       </c>
       <c r="B260" s="8">
-        <v>8912</v>
+        <v>9775</v>
       </c>
       <c r="C260" s="8">
-        <v>25642</v>
+        <v>24348</v>
       </c>
       <c r="D260" s="8">
-        <v>136541</v>
+        <v>136694</v>
       </c>
       <c r="E260" s="8">
-        <v>-110899</v>
+        <v>-112346</v>
       </c>
       <c r="F260" s="8">
-        <v>26160</v>
+        <v>26334</v>
       </c>
       <c r="G260" s="8">
-        <v>121832</v>
+        <v>122372</v>
       </c>
       <c r="H260" s="8">
-        <v>-95672</v>
+        <v>-96038</v>
       </c>
       <c r="I260" s="8">
-        <v>-518</v>
+        <v>-1986</v>
       </c>
       <c r="J260" s="8">
-        <v>14709</v>
+        <v>14322</v>
       </c>
       <c r="K260" s="8">
-        <v>-15227</v>
+        <v>-16308</v>
       </c>
       <c r="L260" s="8">
-        <v>-16268</v>
+        <v>-14229</v>
       </c>
       <c r="M260" s="8">
-        <v>21496</v>
+        <v>21324</v>
       </c>
       <c r="N260" s="8">
-        <v>-37764</v>
+        <v>-35554</v>
       </c>
       <c r="O260" s="8">
-        <v>-462</v>
+        <v>-344</v>
       </c>
       <c r="P260" s="8">
-        <v>2477</v>
+        <v>2569</v>
       </c>
       <c r="Q260" s="8">
-        <v>-2939</v>
+        <v>-2913</v>
       </c>
       <c r="R260" s="8">
-        <v>-6470</v>
+        <v>-11327</v>
       </c>
       <c r="S260" s="8">
-        <v>-180</v>
+        <v>-41</v>
       </c>
       <c r="T260" s="8">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="U260" s="8">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="V260" s="8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W260" s="8">
         <v>-180</v>
@@ -47832,49 +47832,171 @@
         <v>-180</v>
       </c>
       <c r="Z260" s="8">
-        <v>-6290</v>
+        <v>-11286</v>
       </c>
       <c r="AA260" s="8">
-        <v>16336</v>
+        <v>13564</v>
       </c>
       <c r="AB260" s="8">
-        <v>-9820</v>
+        <v>-9658</v>
       </c>
       <c r="AC260" s="8">
-        <v>26155</v>
+        <v>23222</v>
       </c>
       <c r="AD260" s="8">
-        <v>-16834</v>
+        <v>-17686</v>
       </c>
       <c r="AE260" s="8">
-        <v>-60751</v>
+        <v>-61344</v>
       </c>
       <c r="AF260" s="8">
-        <v>43916</v>
+        <v>43657</v>
       </c>
       <c r="AG260" s="8">
-        <v>-6962</v>
+        <v>-7476</v>
       </c>
       <c r="AH260" s="8">
-        <v>35756</v>
+        <v>35179</v>
       </c>
       <c r="AI260" s="8">
-        <v>-42718</v>
+        <v>-42656</v>
       </c>
       <c r="AJ260" s="8">
-        <v>2887</v>
+        <v>2029</v>
       </c>
       <c r="AK260" s="8">
-        <v>-2997</v>
+        <v>-3496</v>
       </c>
       <c r="AL260" s="8">
-        <v>5885</v>
+        <v>5525</v>
       </c>
       <c r="AM260" s="8">
         <v>-1717</v>
       </c>
       <c r="AN260" s="8">
-        <v>-2442</v>
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="261" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A261" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B261" s="8">
+        <v>7738</v>
+      </c>
+      <c r="C261" s="8">
+        <v>31450</v>
+      </c>
+      <c r="D261" s="8">
+        <v>146446</v>
+      </c>
+      <c r="E261" s="8">
+        <v>-114996</v>
+      </c>
+      <c r="F261" s="8">
+        <v>33189</v>
+      </c>
+      <c r="G261" s="8">
+        <v>131460</v>
+      </c>
+      <c r="H261" s="8">
+        <v>-98271</v>
+      </c>
+      <c r="I261" s="8">
+        <v>-1739</v>
+      </c>
+      <c r="J261" s="8">
+        <v>14986</v>
+      </c>
+      <c r="K261" s="8">
+        <v>-16725</v>
+      </c>
+      <c r="L261" s="8">
+        <v>-22738</v>
+      </c>
+      <c r="M261" s="8">
+        <v>20842</v>
+      </c>
+      <c r="N261" s="8">
+        <v>-43580</v>
+      </c>
+      <c r="O261" s="8">
+        <v>-974</v>
+      </c>
+      <c r="P261" s="8">
+        <v>2664</v>
+      </c>
+      <c r="Q261" s="8">
+        <v>-3638</v>
+      </c>
+      <c r="R261" s="8">
+        <v>-2921</v>
+      </c>
+      <c r="S261" s="8">
+        <v>-188</v>
+      </c>
+      <c r="T261" s="8">
+        <v>0</v>
+      </c>
+      <c r="U261" s="8">
+        <v>0</v>
+      </c>
+      <c r="V261" s="8">
+        <v>0</v>
+      </c>
+      <c r="W261" s="8">
+        <v>-188</v>
+      </c>
+      <c r="X261" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="8">
+        <v>-188</v>
+      </c>
+      <c r="Z261" s="8">
+        <v>-2733</v>
+      </c>
+      <c r="AA261" s="8">
+        <v>-28831</v>
+      </c>
+      <c r="AB261" s="8">
+        <v>-110823</v>
+      </c>
+      <c r="AC261" s="8">
+        <v>81992</v>
+      </c>
+      <c r="AD261" s="8">
+        <v>36551</v>
+      </c>
+      <c r="AE261" s="8">
+        <v>-28201</v>
+      </c>
+      <c r="AF261" s="8">
+        <v>64753</v>
+      </c>
+      <c r="AG261" s="8">
+        <v>-3735</v>
+      </c>
+      <c r="AH261" s="8">
+        <v>42601</v>
+      </c>
+      <c r="AI261" s="8">
+        <v>-46336</v>
+      </c>
+      <c r="AJ261" s="8">
+        <v>-6119</v>
+      </c>
+      <c r="AK261" s="8">
+        <v>-23339</v>
+      </c>
+      <c r="AL261" s="8">
+        <v>17220</v>
+      </c>
+      <c r="AM261" s="8">
+        <v>-599</v>
+      </c>
+      <c r="AN261" s="8">
+        <v>-4817</v>
       </c>
     </row>
   </sheetData>
